--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2529.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2529.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.592829402986482</v>
+        <v>2.085911989212036</v>
       </c>
       <c r="B1">
-        <v>3.661158025869027</v>
+        <v>2.158337116241455</v>
       </c>
       <c r="C1">
-        <v>3.171635008910458</v>
+        <v>2.235931396484375</v>
       </c>
       <c r="D1">
-        <v>1.616759302989785</v>
+        <v>2.976590156555176</v>
       </c>
       <c r="E1">
-        <v>1.582888282544515</v>
+        <v>2.99866247177124</v>
       </c>
     </row>
   </sheetData>
